--- a/ErgebnisseFR.xlsx
+++ b/ErgebnisseFR.xlsx
@@ -470,7 +470,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>36424.0</v>
+        <v>35154.0</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -509,12 +509,12 @@
         <v>0.0</v>
       </c>
       <c r="N2">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>34534.0</v>
+        <v>33264.0</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -553,12 +553,12 @@
         <v>0.0</v>
       </c>
       <c r="N3">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>32843.0</v>
+        <v>31573.0</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -597,12 +597,12 @@
         <v>0.0</v>
       </c>
       <c r="N4">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>29458.0</v>
+        <v>28188.0</v>
       </c>
       <c r="B5">
         <v>0.0</v>
@@ -641,12 +641,12 @@
         <v>0.0</v>
       </c>
       <c r="N5">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>27253.0</v>
+        <v>25983.0</v>
       </c>
       <c r="B6">
         <v>0.0</v>
@@ -685,12 +685,12 @@
         <v>0.0</v>
       </c>
       <c r="N6">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>26735.0</v>
+        <v>25465.0</v>
       </c>
       <c r="B7">
         <v>0.0</v>
@@ -729,12 +729,12 @@
         <v>0.0</v>
       </c>
       <c r="N7">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>26957.0</v>
+        <v>25687.0</v>
       </c>
       <c r="B8">
         <v>0.0</v>
@@ -773,12 +773,12 @@
         <v>0.0</v>
       </c>
       <c r="N8">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>27263.0</v>
+        <v>25993.0</v>
       </c>
       <c r="B9">
         <v>0.0</v>
@@ -817,12 +817,12 @@
         <v>0.0</v>
       </c>
       <c r="N9">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>26937.0</v>
+        <v>25667.0</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -861,12 +861,12 @@
         <v>0.0</v>
       </c>
       <c r="N10">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>27527.0</v>
+        <v>26257.0</v>
       </c>
       <c r="B11">
         <v>0.0</v>
@@ -905,7 +905,7 @@
         <v>0.0</v>
       </c>
       <c r="N11">
-        <v>24130.0</v>
+        <v>25400.0</v>
       </c>
     </row>
   </sheetData>

--- a/ErgebnisseFR.xlsx
+++ b/ErgebnisseFR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Kernenergie</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Wasserkraft</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
@@ -418,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,10 +476,19 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
-        <v>35154.0</v>
+        <v>38234.0</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -509,12 +527,21 @@
         <v>0.0</v>
       </c>
       <c r="N2">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
-        <v>33264.0</v>
+        <v>36344.0</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -553,12 +580,21 @@
         <v>0.0</v>
       </c>
       <c r="N3">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
-        <v>31573.0</v>
+        <v>33192.98553400001</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -597,12 +633,21 @@
         <v>0.0</v>
       </c>
       <c r="N4">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>0.0</v>
+      </c>
+      <c r="Q4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
-        <v>28188.0</v>
+        <v>31268.0</v>
       </c>
       <c r="B5">
         <v>0.0</v>
@@ -641,12 +686,21 @@
         <v>0.0</v>
       </c>
       <c r="N5">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O5">
+        <v>0.0</v>
+      </c>
+      <c r="P5">
+        <v>0.0</v>
+      </c>
+      <c r="Q5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
-        <v>25983.0</v>
+        <v>29063.0</v>
       </c>
       <c r="B6">
         <v>0.0</v>
@@ -685,12 +739,21 @@
         <v>0.0</v>
       </c>
       <c r="N6">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O6">
+        <v>0.0</v>
+      </c>
+      <c r="P6">
+        <v>0.0</v>
+      </c>
+      <c r="Q6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
-        <v>25465.0</v>
+        <v>24945.0</v>
       </c>
       <c r="B7">
         <v>0.0</v>
@@ -729,12 +792,21 @@
         <v>0.0</v>
       </c>
       <c r="N7">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O7">
+        <v>1800.0</v>
+      </c>
+      <c r="P7">
+        <v>0.0</v>
+      </c>
+      <c r="Q7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
-        <v>25687.0</v>
+        <v>26497.614466</v>
       </c>
       <c r="B8">
         <v>0.0</v>
@@ -773,12 +845,21 @@
         <v>0.0</v>
       </c>
       <c r="N8">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O8">
+        <v>469.3855340000009</v>
+      </c>
+      <c r="P8">
+        <v>0.0</v>
+      </c>
+      <c r="Q8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
-        <v>25993.0</v>
+        <v>26353.196699</v>
       </c>
       <c r="B9">
         <v>0.0</v>
@@ -817,12 +898,21 @@
         <v>0.0</v>
       </c>
       <c r="N9">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O9">
+        <v>919.8033009999999</v>
+      </c>
+      <c r="P9">
+        <v>0.0</v>
+      </c>
+      <c r="Q9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
-        <v>25667.0</v>
+        <v>25643.626966000003</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -861,12 +951,21 @@
         <v>0.0</v>
       </c>
       <c r="N10">
-        <v>25400.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>24130.0</v>
+      </c>
+      <c r="O10">
+        <v>1303.3730339999966</v>
+      </c>
+      <c r="P10">
+        <v>0.0</v>
+      </c>
+      <c r="Q10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
-        <v>26257.0</v>
+        <v>25737.0</v>
       </c>
       <c r="B11">
         <v>0.0</v>
@@ -905,7 +1004,758 @@
         <v>0.0</v>
       </c>
       <c r="N11">
-        <v>25400.0</v>
+        <v>24130.0</v>
+      </c>
+      <c r="O11">
+        <v>1800.0</v>
+      </c>
+      <c r="P11">
+        <v>0.0</v>
+      </c>
+      <c r="Q11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>30235.396501999996</v>
+      </c>
+      <c r="B12">
+        <v>0.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>0.0</v>
+      </c>
+      <c r="E12">
+        <v>0.0</v>
+      </c>
+      <c r="F12">
+        <v>0.0</v>
+      </c>
+      <c r="G12">
+        <v>0.0</v>
+      </c>
+      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="I12">
+        <v>0.0</v>
+      </c>
+      <c r="J12">
+        <v>0.0</v>
+      </c>
+      <c r="K12">
+        <v>1589.0</v>
+      </c>
+      <c r="L12">
+        <v>1067.0</v>
+      </c>
+      <c r="M12">
+        <v>0.0</v>
+      </c>
+      <c r="N12">
+        <v>24130.0</v>
+      </c>
+      <c r="O12">
+        <v>0.0</v>
+      </c>
+      <c r="P12">
+        <v>0.0</v>
+      </c>
+      <c r="Q12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>31388.880671</v>
+      </c>
+      <c r="B13">
+        <v>0.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>0.0</v>
+      </c>
+      <c r="E13">
+        <v>0.0</v>
+      </c>
+      <c r="F13">
+        <v>0.0</v>
+      </c>
+      <c r="G13">
+        <v>0.0</v>
+      </c>
+      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="I13">
+        <v>0.0</v>
+      </c>
+      <c r="J13">
+        <v>0.0</v>
+      </c>
+      <c r="K13">
+        <v>1602.0</v>
+      </c>
+      <c r="L13">
+        <v>1456.0</v>
+      </c>
+      <c r="M13">
+        <v>0.0</v>
+      </c>
+      <c r="N13">
+        <v>24130.0</v>
+      </c>
+      <c r="O13">
+        <v>0.0</v>
+      </c>
+      <c r="P13">
+        <v>0.0</v>
+      </c>
+      <c r="Q13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>34714.0</v>
+      </c>
+      <c r="B14">
+        <v>0.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0.0</v>
+      </c>
+      <c r="F14">
+        <v>0.0</v>
+      </c>
+      <c r="G14">
+        <v>0.0</v>
+      </c>
+      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="I14">
+        <v>0.0</v>
+      </c>
+      <c r="J14">
+        <v>0.0</v>
+      </c>
+      <c r="K14">
+        <v>1725.0</v>
+      </c>
+      <c r="L14">
+        <v>1628.0</v>
+      </c>
+      <c r="M14">
+        <v>0.0</v>
+      </c>
+      <c r="N14">
+        <v>24130.0</v>
+      </c>
+      <c r="O14">
+        <v>0.0</v>
+      </c>
+      <c r="P14">
+        <v>0.0</v>
+      </c>
+      <c r="Q14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>33605.584376</v>
+      </c>
+      <c r="B15">
+        <v>0.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>0.0</v>
+      </c>
+      <c r="E15">
+        <v>0.0</v>
+      </c>
+      <c r="F15">
+        <v>0.0</v>
+      </c>
+      <c r="G15">
+        <v>0.0</v>
+      </c>
+      <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="I15">
+        <v>0.0</v>
+      </c>
+      <c r="J15">
+        <v>0.0</v>
+      </c>
+      <c r="K15">
+        <v>1971.0</v>
+      </c>
+      <c r="L15">
+        <v>1747.0</v>
+      </c>
+      <c r="M15">
+        <v>0.0</v>
+      </c>
+      <c r="N15">
+        <v>24130.0</v>
+      </c>
+      <c r="O15">
+        <v>0.0</v>
+      </c>
+      <c r="P15">
+        <v>0.0</v>
+      </c>
+      <c r="Q15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>31946.243171000002</v>
+      </c>
+      <c r="B16">
+        <v>0.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>0.0</v>
+      </c>
+      <c r="E16">
+        <v>0.0</v>
+      </c>
+      <c r="F16">
+        <v>0.0</v>
+      </c>
+      <c r="G16">
+        <v>0.0</v>
+      </c>
+      <c r="H16">
+        <v>0.0</v>
+      </c>
+      <c r="I16">
+        <v>0.0</v>
+      </c>
+      <c r="J16">
+        <v>0.0</v>
+      </c>
+      <c r="K16">
+        <v>2096.0</v>
+      </c>
+      <c r="L16">
+        <v>1474.0</v>
+      </c>
+      <c r="M16">
+        <v>0.0</v>
+      </c>
+      <c r="N16">
+        <v>24130.0</v>
+      </c>
+      <c r="O16">
+        <v>0.0</v>
+      </c>
+      <c r="P16">
+        <v>0.0</v>
+      </c>
+      <c r="Q16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>27787.0</v>
+      </c>
+      <c r="B17">
+        <v>0.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>0.0</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+      <c r="F17">
+        <v>0.0</v>
+      </c>
+      <c r="G17">
+        <v>0.0</v>
+      </c>
+      <c r="H17">
+        <v>0.0</v>
+      </c>
+      <c r="I17">
+        <v>0.0</v>
+      </c>
+      <c r="J17">
+        <v>0.0</v>
+      </c>
+      <c r="K17">
+        <v>2108.0</v>
+      </c>
+      <c r="L17">
+        <v>904.0</v>
+      </c>
+      <c r="M17">
+        <v>0.0</v>
+      </c>
+      <c r="N17">
+        <v>24130.0</v>
+      </c>
+      <c r="O17">
+        <v>1800.0</v>
+      </c>
+      <c r="P17">
+        <v>0.0</v>
+      </c>
+      <c r="Q17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>31894.0</v>
+      </c>
+      <c r="B18">
+        <v>0.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0.0</v>
+      </c>
+      <c r="F18">
+        <v>0.0</v>
+      </c>
+      <c r="G18">
+        <v>0.0</v>
+      </c>
+      <c r="H18">
+        <v>0.0</v>
+      </c>
+      <c r="I18">
+        <v>0.0</v>
+      </c>
+      <c r="J18">
+        <v>0.0</v>
+      </c>
+      <c r="K18">
+        <v>2104.0</v>
+      </c>
+      <c r="L18">
+        <v>324.0</v>
+      </c>
+      <c r="M18">
+        <v>0.0</v>
+      </c>
+      <c r="N18">
+        <v>24130.0</v>
+      </c>
+      <c r="O18">
+        <v>0.0</v>
+      </c>
+      <c r="P18">
+        <v>0.0</v>
+      </c>
+      <c r="Q18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>34827.0</v>
+      </c>
+      <c r="B19">
+        <v>0.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>0.0</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+      <c r="F19">
+        <v>0.0</v>
+      </c>
+      <c r="G19">
+        <v>0.0</v>
+      </c>
+      <c r="H19">
+        <v>0.0</v>
+      </c>
+      <c r="I19">
+        <v>0.0</v>
+      </c>
+      <c r="J19">
+        <v>0.0</v>
+      </c>
+      <c r="K19">
+        <v>2185.0</v>
+      </c>
+      <c r="L19">
+        <v>107.0</v>
+      </c>
+      <c r="M19">
+        <v>0.0</v>
+      </c>
+      <c r="N19">
+        <v>24130.0</v>
+      </c>
+      <c r="O19">
+        <v>0.0</v>
+      </c>
+      <c r="P19">
+        <v>0.0</v>
+      </c>
+      <c r="Q19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>37926.0</v>
+      </c>
+      <c r="B20">
+        <v>0.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>0.0</v>
+      </c>
+      <c r="E20">
+        <v>0.0</v>
+      </c>
+      <c r="F20">
+        <v>0.0</v>
+      </c>
+      <c r="G20">
+        <v>0.0</v>
+      </c>
+      <c r="H20">
+        <v>0.0</v>
+      </c>
+      <c r="I20">
+        <v>0.0</v>
+      </c>
+      <c r="J20">
+        <v>0.0</v>
+      </c>
+      <c r="K20">
+        <v>2444.0</v>
+      </c>
+      <c r="L20">
+        <v>0.0</v>
+      </c>
+      <c r="M20">
+        <v>0.0</v>
+      </c>
+      <c r="N20">
+        <v>24130.0</v>
+      </c>
+      <c r="O20">
+        <v>0.0</v>
+      </c>
+      <c r="P20">
+        <v>0.0</v>
+      </c>
+      <c r="Q20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>38825.0</v>
+      </c>
+      <c r="B21">
+        <v>0.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>0.0</v>
+      </c>
+      <c r="E21">
+        <v>0.0</v>
+      </c>
+      <c r="F21">
+        <v>0.0</v>
+      </c>
+      <c r="G21">
+        <v>0.0</v>
+      </c>
+      <c r="H21">
+        <v>0.0</v>
+      </c>
+      <c r="I21">
+        <v>0.0</v>
+      </c>
+      <c r="J21">
+        <v>0.0</v>
+      </c>
+      <c r="K21">
+        <v>2596.0</v>
+      </c>
+      <c r="L21">
+        <v>0.0</v>
+      </c>
+      <c r="M21">
+        <v>0.0</v>
+      </c>
+      <c r="N21">
+        <v>24130.0</v>
+      </c>
+      <c r="O21">
+        <v>0.0</v>
+      </c>
+      <c r="P21">
+        <v>0.0</v>
+      </c>
+      <c r="Q21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>37268.0</v>
+      </c>
+      <c r="B22">
+        <v>0.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+      <c r="F22">
+        <v>0.0</v>
+      </c>
+      <c r="G22">
+        <v>0.0</v>
+      </c>
+      <c r="H22">
+        <v>0.0</v>
+      </c>
+      <c r="I22">
+        <v>0.0</v>
+      </c>
+      <c r="J22">
+        <v>0.0</v>
+      </c>
+      <c r="K22">
+        <v>2772.0</v>
+      </c>
+      <c r="L22">
+        <v>0.0</v>
+      </c>
+      <c r="M22">
+        <v>0.0</v>
+      </c>
+      <c r="N22">
+        <v>24130.0</v>
+      </c>
+      <c r="O22">
+        <v>0.0</v>
+      </c>
+      <c r="P22">
+        <v>0.0</v>
+      </c>
+      <c r="Q22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>31222.0</v>
+      </c>
+      <c r="B23">
+        <v>0.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>0.0</v>
+      </c>
+      <c r="E23">
+        <v>0.0</v>
+      </c>
+      <c r="F23">
+        <v>0.0</v>
+      </c>
+      <c r="G23">
+        <v>0.0</v>
+      </c>
+      <c r="H23">
+        <v>0.0</v>
+      </c>
+      <c r="I23">
+        <v>0.0</v>
+      </c>
+      <c r="J23">
+        <v>0.0</v>
+      </c>
+      <c r="K23">
+        <v>3018.0</v>
+      </c>
+      <c r="L23">
+        <v>0.0</v>
+      </c>
+      <c r="M23">
+        <v>0.0</v>
+      </c>
+      <c r="N23">
+        <v>24130.0</v>
+      </c>
+      <c r="O23">
+        <v>1800.0</v>
+      </c>
+      <c r="P23">
+        <v>0.0</v>
+      </c>
+      <c r="Q23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>32049.0</v>
+      </c>
+      <c r="B24">
+        <v>0.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>0.0</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+      <c r="F24">
+        <v>0.0</v>
+      </c>
+      <c r="G24">
+        <v>0.0</v>
+      </c>
+      <c r="H24">
+        <v>0.0</v>
+      </c>
+      <c r="I24">
+        <v>0.0</v>
+      </c>
+      <c r="J24">
+        <v>0.0</v>
+      </c>
+      <c r="K24">
+        <v>3014.0</v>
+      </c>
+      <c r="L24">
+        <v>0.0</v>
+      </c>
+      <c r="M24">
+        <v>0.0</v>
+      </c>
+      <c r="N24">
+        <v>24130.0</v>
+      </c>
+      <c r="O24">
+        <v>1800.0</v>
+      </c>
+      <c r="P24">
+        <v>0.0</v>
+      </c>
+      <c r="Q24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>35976.885534</v>
+      </c>
+      <c r="B25">
+        <v>0.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>0.0</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+      <c r="F25">
+        <v>0.0</v>
+      </c>
+      <c r="G25">
+        <v>0.0</v>
+      </c>
+      <c r="H25">
+        <v>0.0</v>
+      </c>
+      <c r="I25">
+        <v>0.0</v>
+      </c>
+      <c r="J25">
+        <v>0.0</v>
+      </c>
+      <c r="K25">
+        <v>3011.0</v>
+      </c>
+      <c r="L25">
+        <v>0.0</v>
+      </c>
+      <c r="M25">
+        <v>0.0</v>
+      </c>
+      <c r="N25">
+        <v>24130.0</v>
+      </c>
+      <c r="O25">
+        <v>0.0</v>
+      </c>
+      <c r="P25">
+        <v>0.0</v>
+      </c>
+      <c r="Q25">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/ErgebnisseFR.xlsx
+++ b/ErgebnisseFR.xlsx
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +488,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>38234.0</v>
+        <v>38764.0</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>36344.0</v>
+        <v>36874.0</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>33192.98553400001</v>
+        <v>33674.09503777778</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>31268.0</v>
+        <v>30178.0</v>
       </c>
       <c r="B5">
         <v>0.0</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>29063.0</v>
+        <v>27973.0</v>
       </c>
       <c r="B6">
         <v>0.0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>24945.0</v>
+        <v>27455.0</v>
       </c>
       <c r="B7">
         <v>0.0</v>
@@ -795,7 +795,7 @@
         <v>24130.0</v>
       </c>
       <c r="O7">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="P7">
         <v>0.0</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>26497.614466</v>
+        <v>27038.553019400002</v>
       </c>
       <c r="B8">
         <v>0.0</v>
@@ -848,7 +848,7 @@
         <v>24130.0</v>
       </c>
       <c r="O8">
-        <v>469.3855340000009</v>
+        <v>709.3855340000009</v>
       </c>
       <c r="P8">
         <v>0.0</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>26353.196699</v>
+        <v>26939.1770291</v>
       </c>
       <c r="B9">
         <v>0.0</v>
@@ -901,7 +901,7 @@
         <v>24130.0</v>
       </c>
       <c r="O9">
-        <v>919.8033009999999</v>
+        <v>1159.803301</v>
       </c>
       <c r="P9">
         <v>0.0</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>25643.626966000003</v>
+        <v>26267.964269400007</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -954,7 +954,7 @@
         <v>24130.0</v>
       </c>
       <c r="O10">
-        <v>1303.3730339999966</v>
+        <v>1543.3730339999966</v>
       </c>
       <c r="P10">
         <v>0.0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>25737.0</v>
+        <v>28247.0</v>
       </c>
       <c r="B11">
         <v>0.0</v>
@@ -1007,7 +1007,7 @@
         <v>24130.0</v>
       </c>
       <c r="O11">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11">
         <v>0.0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>30235.396501999996</v>
+        <v>29611.0</v>
       </c>
       <c r="B12">
         <v>0.0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>31388.880671</v>
+        <v>31254.0</v>
       </c>
       <c r="B13">
         <v>0.0</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>34714.0</v>
+        <v>33624.0</v>
       </c>
       <c r="B14">
         <v>0.0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>33605.584376</v>
+        <v>32901.0</v>
       </c>
       <c r="B15">
         <v>0.0</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>31946.243171000002</v>
+        <v>30997.0</v>
       </c>
       <c r="B16">
         <v>0.0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>27787.0</v>
+        <v>30297.0</v>
       </c>
       <c r="B17">
         <v>0.0</v>
@@ -1325,7 +1325,7 @@
         <v>24130.0</v>
       </c>
       <c r="O17">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17">
         <v>0.0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>31894.0</v>
+        <v>30804.0</v>
       </c>
       <c r="B18">
         <v>0.0</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19">
-        <v>34827.0</v>
+        <v>33737.0</v>
       </c>
       <c r="B19">
         <v>0.0</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20">
-        <v>37926.0</v>
+        <v>36836.0</v>
       </c>
       <c r="B20">
         <v>0.0</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
-        <v>38825.0</v>
+        <v>37735.0</v>
       </c>
       <c r="B21">
         <v>0.0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22">
-        <v>37268.0</v>
+        <v>36178.0</v>
       </c>
       <c r="B22">
         <v>0.0</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23">
-        <v>31222.0</v>
+        <v>33732.0</v>
       </c>
       <c r="B23">
         <v>0.0</v>
@@ -1643,7 +1643,7 @@
         <v>24130.0</v>
       </c>
       <c r="O23">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23">
         <v>0.0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>32049.0</v>
+        <v>34559.0</v>
       </c>
       <c r="B24">
         <v>0.0</v>
@@ -1696,7 +1696,7 @@
         <v>24130.0</v>
       </c>
       <c r="O24">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24">
         <v>0.0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25">
-        <v>35976.885534</v>
+        <v>35342.0</v>
       </c>
       <c r="B25">
         <v>0.0</v>
@@ -1755,6 +1755,1278 @@
         <v>0.0</v>
       </c>
       <c r="Q25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>32540.0</v>
+      </c>
+      <c r="B26">
+        <v>0.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>0.0</v>
+      </c>
+      <c r="E26">
+        <v>0.0</v>
+      </c>
+      <c r="F26">
+        <v>0.0</v>
+      </c>
+      <c r="G26">
+        <v>0.0</v>
+      </c>
+      <c r="H26">
+        <v>0.0</v>
+      </c>
+      <c r="I26">
+        <v>0.0</v>
+      </c>
+      <c r="J26">
+        <v>0.0</v>
+      </c>
+      <c r="K26">
+        <v>3356.0</v>
+      </c>
+      <c r="L26">
+        <v>0.0</v>
+      </c>
+      <c r="M26">
+        <v>0.0</v>
+      </c>
+      <c r="N26">
+        <v>24130.0</v>
+      </c>
+      <c r="O26">
+        <v>0.0</v>
+      </c>
+      <c r="P26">
+        <v>0.0</v>
+      </c>
+      <c r="Q26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>30166.0</v>
+      </c>
+      <c r="B27">
+        <v>0.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>0.0</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+      <c r="F27">
+        <v>0.0</v>
+      </c>
+      <c r="G27">
+        <v>0.0</v>
+      </c>
+      <c r="H27">
+        <v>0.0</v>
+      </c>
+      <c r="I27">
+        <v>0.0</v>
+      </c>
+      <c r="J27">
+        <v>0.0</v>
+      </c>
+      <c r="K27">
+        <v>3417.0</v>
+      </c>
+      <c r="L27">
+        <v>0.0</v>
+      </c>
+      <c r="M27">
+        <v>0.0</v>
+      </c>
+      <c r="N27">
+        <v>24130.0</v>
+      </c>
+      <c r="O27">
+        <v>0.0</v>
+      </c>
+      <c r="P27">
+        <v>0.0</v>
+      </c>
+      <c r="Q27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>28944.0</v>
+      </c>
+      <c r="B28">
+        <v>0.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>0.0</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+      <c r="F28">
+        <v>0.0</v>
+      </c>
+      <c r="G28">
+        <v>0.0</v>
+      </c>
+      <c r="H28">
+        <v>0.0</v>
+      </c>
+      <c r="I28">
+        <v>0.0</v>
+      </c>
+      <c r="J28">
+        <v>0.0</v>
+      </c>
+      <c r="K28">
+        <v>3359.0</v>
+      </c>
+      <c r="L28">
+        <v>0.0</v>
+      </c>
+      <c r="M28">
+        <v>0.0</v>
+      </c>
+      <c r="N28">
+        <v>24130.0</v>
+      </c>
+      <c r="O28">
+        <v>0.0</v>
+      </c>
+      <c r="P28">
+        <v>0.0</v>
+      </c>
+      <c r="Q28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>26781.0</v>
+      </c>
+      <c r="B29">
+        <v>0.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>0.0</v>
+      </c>
+      <c r="E29">
+        <v>0.0</v>
+      </c>
+      <c r="F29">
+        <v>0.0</v>
+      </c>
+      <c r="G29">
+        <v>0.0</v>
+      </c>
+      <c r="H29">
+        <v>0.0</v>
+      </c>
+      <c r="I29">
+        <v>0.0</v>
+      </c>
+      <c r="J29">
+        <v>0.0</v>
+      </c>
+      <c r="K29">
+        <v>3281.0</v>
+      </c>
+      <c r="L29">
+        <v>0.0</v>
+      </c>
+      <c r="M29">
+        <v>0.0</v>
+      </c>
+      <c r="N29">
+        <v>24130.0</v>
+      </c>
+      <c r="O29">
+        <v>0.0</v>
+      </c>
+      <c r="P29">
+        <v>0.0</v>
+      </c>
+      <c r="Q29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>26546.0</v>
+      </c>
+      <c r="B30">
+        <v>0.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>0.0</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+      <c r="F30">
+        <v>0.0</v>
+      </c>
+      <c r="G30">
+        <v>0.0</v>
+      </c>
+      <c r="H30">
+        <v>0.0</v>
+      </c>
+      <c r="I30">
+        <v>0.0</v>
+      </c>
+      <c r="J30">
+        <v>0.0</v>
+      </c>
+      <c r="K30">
+        <v>3146.9999999999995</v>
+      </c>
+      <c r="L30">
+        <v>0.0</v>
+      </c>
+      <c r="M30">
+        <v>0.0</v>
+      </c>
+      <c r="N30">
+        <v>24130.0</v>
+      </c>
+      <c r="O30">
+        <v>0.0</v>
+      </c>
+      <c r="P30">
+        <v>0.0</v>
+      </c>
+      <c r="Q30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>28805.0</v>
+      </c>
+      <c r="B31">
+        <v>0.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>0.0</v>
+      </c>
+      <c r="E31">
+        <v>0.0</v>
+      </c>
+      <c r="F31">
+        <v>0.0</v>
+      </c>
+      <c r="G31">
+        <v>0.0</v>
+      </c>
+      <c r="H31">
+        <v>0.0</v>
+      </c>
+      <c r="I31">
+        <v>0.0</v>
+      </c>
+      <c r="J31">
+        <v>0.0</v>
+      </c>
+      <c r="K31">
+        <v>3146.0</v>
+      </c>
+      <c r="L31">
+        <v>0.0</v>
+      </c>
+      <c r="M31">
+        <v>0.0</v>
+      </c>
+      <c r="N31">
+        <v>24130.0</v>
+      </c>
+      <c r="O31">
+        <v>0.0</v>
+      </c>
+      <c r="P31">
+        <v>0.0</v>
+      </c>
+      <c r="Q31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>34070.13522111111</v>
+      </c>
+      <c r="B32">
+        <v>0.0</v>
+      </c>
+      <c r="C32">
+        <v>0.0</v>
+      </c>
+      <c r="D32">
+        <v>0.0</v>
+      </c>
+      <c r="E32">
+        <v>0.0</v>
+      </c>
+      <c r="F32">
+        <v>0.0</v>
+      </c>
+      <c r="G32">
+        <v>0.0</v>
+      </c>
+      <c r="H32">
+        <v>0.0</v>
+      </c>
+      <c r="I32">
+        <v>0.0</v>
+      </c>
+      <c r="J32">
+        <v>0.0</v>
+      </c>
+      <c r="K32">
+        <v>3072.0</v>
+      </c>
+      <c r="L32">
+        <v>0.0</v>
+      </c>
+      <c r="M32">
+        <v>0.0</v>
+      </c>
+      <c r="N32">
+        <v>24130.0</v>
+      </c>
+      <c r="O32">
+        <v>0.0</v>
+      </c>
+      <c r="P32">
+        <v>0.0</v>
+      </c>
+      <c r="Q32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>38557.0</v>
+      </c>
+      <c r="B33">
+        <v>0.0</v>
+      </c>
+      <c r="C33">
+        <v>0.0</v>
+      </c>
+      <c r="D33">
+        <v>0.0</v>
+      </c>
+      <c r="E33">
+        <v>0.0</v>
+      </c>
+      <c r="F33">
+        <v>0.0</v>
+      </c>
+      <c r="G33">
+        <v>0.0</v>
+      </c>
+      <c r="H33">
+        <v>0.0</v>
+      </c>
+      <c r="I33">
+        <v>0.0</v>
+      </c>
+      <c r="J33">
+        <v>0.0</v>
+      </c>
+      <c r="K33">
+        <v>3138.0</v>
+      </c>
+      <c r="L33">
+        <v>0.0</v>
+      </c>
+      <c r="M33">
+        <v>0.0</v>
+      </c>
+      <c r="N33">
+        <v>24130.0</v>
+      </c>
+      <c r="O33">
+        <v>0.0</v>
+      </c>
+      <c r="P33">
+        <v>0.0</v>
+      </c>
+      <c r="Q33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>41659.0</v>
+      </c>
+      <c r="B34">
+        <v>0.0</v>
+      </c>
+      <c r="C34">
+        <v>0.0</v>
+      </c>
+      <c r="D34">
+        <v>0.0</v>
+      </c>
+      <c r="E34">
+        <v>0.0</v>
+      </c>
+      <c r="F34">
+        <v>0.0</v>
+      </c>
+      <c r="G34">
+        <v>0.0</v>
+      </c>
+      <c r="H34">
+        <v>0.0</v>
+      </c>
+      <c r="I34">
+        <v>0.0</v>
+      </c>
+      <c r="J34">
+        <v>0.0</v>
+      </c>
+      <c r="K34">
+        <v>3179.0000000000005</v>
+      </c>
+      <c r="L34">
+        <v>141.0</v>
+      </c>
+      <c r="M34">
+        <v>0.0</v>
+      </c>
+      <c r="N34">
+        <v>24130.0</v>
+      </c>
+      <c r="O34">
+        <v>0.0</v>
+      </c>
+      <c r="P34">
+        <v>0.0</v>
+      </c>
+      <c r="Q34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>42934.0</v>
+      </c>
+      <c r="B35">
+        <v>0.0</v>
+      </c>
+      <c r="C35">
+        <v>0.0</v>
+      </c>
+      <c r="D35">
+        <v>0.0</v>
+      </c>
+      <c r="E35">
+        <v>0.0</v>
+      </c>
+      <c r="F35">
+        <v>0.0</v>
+      </c>
+      <c r="G35">
+        <v>0.0</v>
+      </c>
+      <c r="H35">
+        <v>0.0</v>
+      </c>
+      <c r="I35">
+        <v>0.0</v>
+      </c>
+      <c r="J35">
+        <v>0.0</v>
+      </c>
+      <c r="K35">
+        <v>3069.0</v>
+      </c>
+      <c r="L35">
+        <v>582.0</v>
+      </c>
+      <c r="M35">
+        <v>0.0</v>
+      </c>
+      <c r="N35">
+        <v>24130.0</v>
+      </c>
+      <c r="O35">
+        <v>0.0</v>
+      </c>
+      <c r="P35">
+        <v>0.0</v>
+      </c>
+      <c r="Q35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>43020.0</v>
+      </c>
+      <c r="B36">
+        <v>0.0</v>
+      </c>
+      <c r="C36">
+        <v>0.0</v>
+      </c>
+      <c r="D36">
+        <v>0.0</v>
+      </c>
+      <c r="E36">
+        <v>0.0</v>
+      </c>
+      <c r="F36">
+        <v>0.0</v>
+      </c>
+      <c r="G36">
+        <v>0.0</v>
+      </c>
+      <c r="H36">
+        <v>0.0</v>
+      </c>
+      <c r="I36">
+        <v>0.0</v>
+      </c>
+      <c r="J36">
+        <v>0.0</v>
+      </c>
+      <c r="K36">
+        <v>2922.0</v>
+      </c>
+      <c r="L36">
+        <v>1432.0</v>
+      </c>
+      <c r="M36">
+        <v>0.0</v>
+      </c>
+      <c r="N36">
+        <v>24130.0</v>
+      </c>
+      <c r="O36">
+        <v>0.0</v>
+      </c>
+      <c r="P36">
+        <v>0.0</v>
+      </c>
+      <c r="Q36">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>43063.0</v>
+      </c>
+      <c r="B37">
+        <v>0.0</v>
+      </c>
+      <c r="C37">
+        <v>0.0</v>
+      </c>
+      <c r="D37">
+        <v>0.0</v>
+      </c>
+      <c r="E37">
+        <v>0.0</v>
+      </c>
+      <c r="F37">
+        <v>0.0</v>
+      </c>
+      <c r="G37">
+        <v>0.0</v>
+      </c>
+      <c r="H37">
+        <v>0.0</v>
+      </c>
+      <c r="I37">
+        <v>0.0</v>
+      </c>
+      <c r="J37">
+        <v>0.0</v>
+      </c>
+      <c r="K37">
+        <v>2772.0</v>
+      </c>
+      <c r="L37">
+        <v>2304.0</v>
+      </c>
+      <c r="M37">
+        <v>0.0</v>
+      </c>
+      <c r="N37">
+        <v>24130.0</v>
+      </c>
+      <c r="O37">
+        <v>0.0</v>
+      </c>
+      <c r="P37">
+        <v>0.0</v>
+      </c>
+      <c r="Q37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>43792.0</v>
+      </c>
+      <c r="B38">
+        <v>0.0</v>
+      </c>
+      <c r="C38">
+        <v>0.0</v>
+      </c>
+      <c r="D38">
+        <v>0.0</v>
+      </c>
+      <c r="E38">
+        <v>0.0</v>
+      </c>
+      <c r="F38">
+        <v>0.0</v>
+      </c>
+      <c r="G38">
+        <v>0.0</v>
+      </c>
+      <c r="H38">
+        <v>0.0</v>
+      </c>
+      <c r="I38">
+        <v>0.0</v>
+      </c>
+      <c r="J38">
+        <v>0.0</v>
+      </c>
+      <c r="K38">
+        <v>2979.0</v>
+      </c>
+      <c r="L38">
+        <v>2788.0</v>
+      </c>
+      <c r="M38">
+        <v>0.0</v>
+      </c>
+      <c r="N38">
+        <v>24130.0</v>
+      </c>
+      <c r="O38">
+        <v>0.0</v>
+      </c>
+      <c r="P38">
+        <v>0.0</v>
+      </c>
+      <c r="Q38">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>42626.0</v>
+      </c>
+      <c r="B39">
+        <v>0.0</v>
+      </c>
+      <c r="C39">
+        <v>0.0</v>
+      </c>
+      <c r="D39">
+        <v>0.0</v>
+      </c>
+      <c r="E39">
+        <v>0.0</v>
+      </c>
+      <c r="F39">
+        <v>0.0</v>
+      </c>
+      <c r="G39">
+        <v>0.0</v>
+      </c>
+      <c r="H39">
+        <v>0.0</v>
+      </c>
+      <c r="I39">
+        <v>0.0</v>
+      </c>
+      <c r="J39">
+        <v>0.0</v>
+      </c>
+      <c r="K39">
+        <v>3161.0</v>
+      </c>
+      <c r="L39">
+        <v>2746.0</v>
+      </c>
+      <c r="M39">
+        <v>0.0</v>
+      </c>
+      <c r="N39">
+        <v>24130.0</v>
+      </c>
+      <c r="O39">
+        <v>0.0</v>
+      </c>
+      <c r="P39">
+        <v>0.0</v>
+      </c>
+      <c r="Q39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>41074.0</v>
+      </c>
+      <c r="B40">
+        <v>0.0</v>
+      </c>
+      <c r="C40">
+        <v>0.0</v>
+      </c>
+      <c r="D40">
+        <v>0.0</v>
+      </c>
+      <c r="E40">
+        <v>0.0</v>
+      </c>
+      <c r="F40">
+        <v>0.0</v>
+      </c>
+      <c r="G40">
+        <v>0.0</v>
+      </c>
+      <c r="H40">
+        <v>0.0</v>
+      </c>
+      <c r="I40">
+        <v>0.0</v>
+      </c>
+      <c r="J40">
+        <v>0.0</v>
+      </c>
+      <c r="K40">
+        <v>3383.0</v>
+      </c>
+      <c r="L40">
+        <v>2325.0</v>
+      </c>
+      <c r="M40">
+        <v>0.0</v>
+      </c>
+      <c r="N40">
+        <v>24130.0</v>
+      </c>
+      <c r="O40">
+        <v>0.0</v>
+      </c>
+      <c r="P40">
+        <v>0.0</v>
+      </c>
+      <c r="Q40">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>40095.0</v>
+      </c>
+      <c r="B41">
+        <v>0.0</v>
+      </c>
+      <c r="C41">
+        <v>0.0</v>
+      </c>
+      <c r="D41">
+        <v>0.0</v>
+      </c>
+      <c r="E41">
+        <v>0.0</v>
+      </c>
+      <c r="F41">
+        <v>0.0</v>
+      </c>
+      <c r="G41">
+        <v>0.0</v>
+      </c>
+      <c r="H41">
+        <v>0.0</v>
+      </c>
+      <c r="I41">
+        <v>0.0</v>
+      </c>
+      <c r="J41">
+        <v>0.0</v>
+      </c>
+      <c r="K41">
+        <v>3426.9999999999995</v>
+      </c>
+      <c r="L41">
+        <v>1504.0</v>
+      </c>
+      <c r="M41">
+        <v>0.0</v>
+      </c>
+      <c r="N41">
+        <v>24130.0</v>
+      </c>
+      <c r="O41">
+        <v>0.0</v>
+      </c>
+      <c r="P41">
+        <v>0.0</v>
+      </c>
+      <c r="Q41">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>40926.0</v>
+      </c>
+      <c r="B42">
+        <v>0.0</v>
+      </c>
+      <c r="C42">
+        <v>0.0</v>
+      </c>
+      <c r="D42">
+        <v>0.0</v>
+      </c>
+      <c r="E42">
+        <v>0.0</v>
+      </c>
+      <c r="F42">
+        <v>0.0</v>
+      </c>
+      <c r="G42">
+        <v>0.0</v>
+      </c>
+      <c r="H42">
+        <v>0.0</v>
+      </c>
+      <c r="I42">
+        <v>0.0</v>
+      </c>
+      <c r="J42">
+        <v>0.0</v>
+      </c>
+      <c r="K42">
+        <v>3380.0</v>
+      </c>
+      <c r="L42">
+        <v>552.0</v>
+      </c>
+      <c r="M42">
+        <v>0.0</v>
+      </c>
+      <c r="N42">
+        <v>24130.0</v>
+      </c>
+      <c r="O42">
+        <v>0.0</v>
+      </c>
+      <c r="P42">
+        <v>0.0</v>
+      </c>
+      <c r="Q42">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>44830.0</v>
+      </c>
+      <c r="B43">
+        <v>0.0</v>
+      </c>
+      <c r="C43">
+        <v>0.0</v>
+      </c>
+      <c r="D43">
+        <v>0.0</v>
+      </c>
+      <c r="E43">
+        <v>0.0</v>
+      </c>
+      <c r="F43">
+        <v>0.0</v>
+      </c>
+      <c r="G43">
+        <v>0.0</v>
+      </c>
+      <c r="H43">
+        <v>0.0</v>
+      </c>
+      <c r="I43">
+        <v>0.0</v>
+      </c>
+      <c r="J43">
+        <v>0.0</v>
+      </c>
+      <c r="K43">
+        <v>3146.9999999999995</v>
+      </c>
+      <c r="L43">
+        <v>119.00000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.0</v>
+      </c>
+      <c r="N43">
+        <v>24130.0</v>
+      </c>
+      <c r="O43">
+        <v>0.0</v>
+      </c>
+      <c r="P43">
+        <v>0.0</v>
+      </c>
+      <c r="Q43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>48723.0</v>
+      </c>
+      <c r="B44">
+        <v>0.0</v>
+      </c>
+      <c r="C44">
+        <v>0.0</v>
+      </c>
+      <c r="D44">
+        <v>0.0</v>
+      </c>
+      <c r="E44">
+        <v>0.0</v>
+      </c>
+      <c r="F44">
+        <v>0.0</v>
+      </c>
+      <c r="G44">
+        <v>0.0</v>
+      </c>
+      <c r="H44">
+        <v>0.0</v>
+      </c>
+      <c r="I44">
+        <v>0.0</v>
+      </c>
+      <c r="J44">
+        <v>0.0</v>
+      </c>
+      <c r="K44">
+        <v>3263.0</v>
+      </c>
+      <c r="L44">
+        <v>0.0</v>
+      </c>
+      <c r="M44">
+        <v>0.0</v>
+      </c>
+      <c r="N44">
+        <v>24130.0</v>
+      </c>
+      <c r="O44">
+        <v>0.0</v>
+      </c>
+      <c r="P44">
+        <v>0.0</v>
+      </c>
+      <c r="Q44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>49248.0</v>
+      </c>
+      <c r="B45">
+        <v>0.0</v>
+      </c>
+      <c r="C45">
+        <v>0.0</v>
+      </c>
+      <c r="D45">
+        <v>0.0</v>
+      </c>
+      <c r="E45">
+        <v>0.0</v>
+      </c>
+      <c r="F45">
+        <v>0.0</v>
+      </c>
+      <c r="G45">
+        <v>0.0</v>
+      </c>
+      <c r="H45">
+        <v>0.0</v>
+      </c>
+      <c r="I45">
+        <v>0.0</v>
+      </c>
+      <c r="J45">
+        <v>0.0</v>
+      </c>
+      <c r="K45">
+        <v>3353.0</v>
+      </c>
+      <c r="L45">
+        <v>0.0</v>
+      </c>
+      <c r="M45">
+        <v>0.0</v>
+      </c>
+      <c r="N45">
+        <v>24130.0</v>
+      </c>
+      <c r="O45">
+        <v>0.0</v>
+      </c>
+      <c r="P45">
+        <v>0.0</v>
+      </c>
+      <c r="Q45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>46063.0</v>
+      </c>
+      <c r="B46">
+        <v>0.0</v>
+      </c>
+      <c r="C46">
+        <v>0.0</v>
+      </c>
+      <c r="D46">
+        <v>0.0</v>
+      </c>
+      <c r="E46">
+        <v>0.0</v>
+      </c>
+      <c r="F46">
+        <v>0.0</v>
+      </c>
+      <c r="G46">
+        <v>0.0</v>
+      </c>
+      <c r="H46">
+        <v>0.0</v>
+      </c>
+      <c r="I46">
+        <v>0.0</v>
+      </c>
+      <c r="J46">
+        <v>0.0</v>
+      </c>
+      <c r="K46">
+        <v>3251.9999999999995</v>
+      </c>
+      <c r="L46">
+        <v>0.0</v>
+      </c>
+      <c r="M46">
+        <v>0.0</v>
+      </c>
+      <c r="N46">
+        <v>24130.0</v>
+      </c>
+      <c r="O46">
+        <v>0.0</v>
+      </c>
+      <c r="P46">
+        <v>0.0</v>
+      </c>
+      <c r="Q46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>43068.0</v>
+      </c>
+      <c r="B47">
+        <v>0.0</v>
+      </c>
+      <c r="C47">
+        <v>0.0</v>
+      </c>
+      <c r="D47">
+        <v>0.0</v>
+      </c>
+      <c r="E47">
+        <v>0.0</v>
+      </c>
+      <c r="F47">
+        <v>0.0</v>
+      </c>
+      <c r="G47">
+        <v>0.0</v>
+      </c>
+      <c r="H47">
+        <v>0.0</v>
+      </c>
+      <c r="I47">
+        <v>0.0</v>
+      </c>
+      <c r="J47">
+        <v>0.0</v>
+      </c>
+      <c r="K47">
+        <v>3198.0000000000005</v>
+      </c>
+      <c r="L47">
+        <v>0.0</v>
+      </c>
+      <c r="M47">
+        <v>0.0</v>
+      </c>
+      <c r="N47">
+        <v>24130.0</v>
+      </c>
+      <c r="O47">
+        <v>0.0</v>
+      </c>
+      <c r="P47">
+        <v>0.0</v>
+      </c>
+      <c r="Q47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>43864.0</v>
+      </c>
+      <c r="B48">
+        <v>0.0</v>
+      </c>
+      <c r="C48">
+        <v>0.0</v>
+      </c>
+      <c r="D48">
+        <v>0.0</v>
+      </c>
+      <c r="E48">
+        <v>0.0</v>
+      </c>
+      <c r="F48">
+        <v>0.0</v>
+      </c>
+      <c r="G48">
+        <v>0.0</v>
+      </c>
+      <c r="H48">
+        <v>0.0</v>
+      </c>
+      <c r="I48">
+        <v>0.0</v>
+      </c>
+      <c r="J48">
+        <v>0.0</v>
+      </c>
+      <c r="K48">
+        <v>3073.0</v>
+      </c>
+      <c r="L48">
+        <v>0.0</v>
+      </c>
+      <c r="M48">
+        <v>0.0</v>
+      </c>
+      <c r="N48">
+        <v>24130.0</v>
+      </c>
+      <c r="O48">
+        <v>0.0</v>
+      </c>
+      <c r="P48">
+        <v>0.0</v>
+      </c>
+      <c r="Q48">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>44972.0</v>
+      </c>
+      <c r="B49">
+        <v>0.0</v>
+      </c>
+      <c r="C49">
+        <v>0.0</v>
+      </c>
+      <c r="D49">
+        <v>0.0</v>
+      </c>
+      <c r="E49">
+        <v>0.0</v>
+      </c>
+      <c r="F49">
+        <v>0.0</v>
+      </c>
+      <c r="G49">
+        <v>0.0</v>
+      </c>
+      <c r="H49">
+        <v>0.0</v>
+      </c>
+      <c r="I49">
+        <v>0.0</v>
+      </c>
+      <c r="J49">
+        <v>0.0</v>
+      </c>
+      <c r="K49">
+        <v>3077.0000000000005</v>
+      </c>
+      <c r="L49">
+        <v>0.0</v>
+      </c>
+      <c r="M49">
+        <v>0.0</v>
+      </c>
+      <c r="N49">
+        <v>24130.0</v>
+      </c>
+      <c r="O49">
+        <v>0.0</v>
+      </c>
+      <c r="P49">
+        <v>0.0</v>
+      </c>
+      <c r="Q49">
         <v>0.0</v>
       </c>
     </row>

--- a/ErgebnisseFR.xlsx
+++ b/ErgebnisseFR.xlsx
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +488,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>38764.0</v>
+        <v>39024.0</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>36874.0</v>
+        <v>37134.0</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <v>33674.09503777778</v>
+        <v>34020.76170444444</v>
       </c>
       <c r="B4">
         <v>0.0</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <v>30178.0</v>
+        <v>30258.0</v>
       </c>
       <c r="B5">
         <v>0.0</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>27973.0</v>
+        <v>28053.0</v>
       </c>
       <c r="B6">
         <v>0.0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>27455.0</v>
+        <v>27535.0</v>
       </c>
       <c r="B7">
         <v>0.0</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>27038.553019400002</v>
+        <v>27334.553019400002</v>
       </c>
       <c r="B8">
         <v>0.0</v>
@@ -848,7 +848,7 @@
         <v>24130.0</v>
       </c>
       <c r="O8">
-        <v>709.3855340000009</v>
+        <v>469.3855340000009</v>
       </c>
       <c r="P8">
         <v>0.0</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>26939.1770291</v>
+        <v>27235.1770291</v>
       </c>
       <c r="B9">
         <v>0.0</v>
@@ -901,7 +901,7 @@
         <v>24130.0</v>
       </c>
       <c r="O9">
-        <v>1159.803301</v>
+        <v>919.8033009999999</v>
       </c>
       <c r="P9">
         <v>0.0</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>26267.964269400007</v>
+        <v>26563.964269400007</v>
       </c>
       <c r="B10">
         <v>0.0</v>
@@ -954,7 +954,7 @@
         <v>24130.0</v>
       </c>
       <c r="O10">
-        <v>1543.3730339999966</v>
+        <v>1303.3730339999966</v>
       </c>
       <c r="P10">
         <v>0.0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>28247.0</v>
+        <v>28327.0</v>
       </c>
       <c r="B11">
         <v>0.0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>29611.0</v>
+        <v>29691.0</v>
       </c>
       <c r="B12">
         <v>0.0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>31254.0</v>
+        <v>31334.0</v>
       </c>
       <c r="B13">
         <v>0.0</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>33624.0</v>
+        <v>33704.0</v>
       </c>
       <c r="B14">
         <v>0.0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>32901.0</v>
+        <v>32981.0</v>
       </c>
       <c r="B15">
         <v>0.0</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>30997.0</v>
+        <v>31077.0</v>
       </c>
       <c r="B16">
         <v>0.0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>30297.0</v>
+        <v>30377.0</v>
       </c>
       <c r="B17">
         <v>0.0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>30804.0</v>
+        <v>30884.0</v>
       </c>
       <c r="B18">
         <v>0.0</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19">
-        <v>33737.0</v>
+        <v>33817.0</v>
       </c>
       <c r="B19">
         <v>0.0</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20">
-        <v>36836.0</v>
+        <v>36916.0</v>
       </c>
       <c r="B20">
         <v>0.0</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
-        <v>37735.0</v>
+        <v>37815.0</v>
       </c>
       <c r="B21">
         <v>0.0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22">
-        <v>36178.0</v>
+        <v>36258.0</v>
       </c>
       <c r="B22">
         <v>0.0</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23">
-        <v>33732.0</v>
+        <v>33812.0</v>
       </c>
       <c r="B23">
         <v>0.0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>34559.0</v>
+        <v>34639.0</v>
       </c>
       <c r="B24">
         <v>0.0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25">
-        <v>35342.0</v>
+        <v>35422.0</v>
       </c>
       <c r="B25">
         <v>0.0</v>
@@ -1755,1278 +1755,6 @@
         <v>0.0</v>
       </c>
       <c r="Q25">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26">
-        <v>32540.0</v>
-      </c>
-      <c r="B26">
-        <v>0.0</v>
-      </c>
-      <c r="C26">
-        <v>0.0</v>
-      </c>
-      <c r="D26">
-        <v>0.0</v>
-      </c>
-      <c r="E26">
-        <v>0.0</v>
-      </c>
-      <c r="F26">
-        <v>0.0</v>
-      </c>
-      <c r="G26">
-        <v>0.0</v>
-      </c>
-      <c r="H26">
-        <v>0.0</v>
-      </c>
-      <c r="I26">
-        <v>0.0</v>
-      </c>
-      <c r="J26">
-        <v>0.0</v>
-      </c>
-      <c r="K26">
-        <v>3356.0</v>
-      </c>
-      <c r="L26">
-        <v>0.0</v>
-      </c>
-      <c r="M26">
-        <v>0.0</v>
-      </c>
-      <c r="N26">
-        <v>24130.0</v>
-      </c>
-      <c r="O26">
-        <v>0.0</v>
-      </c>
-      <c r="P26">
-        <v>0.0</v>
-      </c>
-      <c r="Q26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27">
-        <v>30166.0</v>
-      </c>
-      <c r="B27">
-        <v>0.0</v>
-      </c>
-      <c r="C27">
-        <v>0.0</v>
-      </c>
-      <c r="D27">
-        <v>0.0</v>
-      </c>
-      <c r="E27">
-        <v>0.0</v>
-      </c>
-      <c r="F27">
-        <v>0.0</v>
-      </c>
-      <c r="G27">
-        <v>0.0</v>
-      </c>
-      <c r="H27">
-        <v>0.0</v>
-      </c>
-      <c r="I27">
-        <v>0.0</v>
-      </c>
-      <c r="J27">
-        <v>0.0</v>
-      </c>
-      <c r="K27">
-        <v>3417.0</v>
-      </c>
-      <c r="L27">
-        <v>0.0</v>
-      </c>
-      <c r="M27">
-        <v>0.0</v>
-      </c>
-      <c r="N27">
-        <v>24130.0</v>
-      </c>
-      <c r="O27">
-        <v>0.0</v>
-      </c>
-      <c r="P27">
-        <v>0.0</v>
-      </c>
-      <c r="Q27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
-        <v>28944.0</v>
-      </c>
-      <c r="B28">
-        <v>0.0</v>
-      </c>
-      <c r="C28">
-        <v>0.0</v>
-      </c>
-      <c r="D28">
-        <v>0.0</v>
-      </c>
-      <c r="E28">
-        <v>0.0</v>
-      </c>
-      <c r="F28">
-        <v>0.0</v>
-      </c>
-      <c r="G28">
-        <v>0.0</v>
-      </c>
-      <c r="H28">
-        <v>0.0</v>
-      </c>
-      <c r="I28">
-        <v>0.0</v>
-      </c>
-      <c r="J28">
-        <v>0.0</v>
-      </c>
-      <c r="K28">
-        <v>3359.0</v>
-      </c>
-      <c r="L28">
-        <v>0.0</v>
-      </c>
-      <c r="M28">
-        <v>0.0</v>
-      </c>
-      <c r="N28">
-        <v>24130.0</v>
-      </c>
-      <c r="O28">
-        <v>0.0</v>
-      </c>
-      <c r="P28">
-        <v>0.0</v>
-      </c>
-      <c r="Q28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29">
-        <v>26781.0</v>
-      </c>
-      <c r="B29">
-        <v>0.0</v>
-      </c>
-      <c r="C29">
-        <v>0.0</v>
-      </c>
-      <c r="D29">
-        <v>0.0</v>
-      </c>
-      <c r="E29">
-        <v>0.0</v>
-      </c>
-      <c r="F29">
-        <v>0.0</v>
-      </c>
-      <c r="G29">
-        <v>0.0</v>
-      </c>
-      <c r="H29">
-        <v>0.0</v>
-      </c>
-      <c r="I29">
-        <v>0.0</v>
-      </c>
-      <c r="J29">
-        <v>0.0</v>
-      </c>
-      <c r="K29">
-        <v>3281.0</v>
-      </c>
-      <c r="L29">
-        <v>0.0</v>
-      </c>
-      <c r="M29">
-        <v>0.0</v>
-      </c>
-      <c r="N29">
-        <v>24130.0</v>
-      </c>
-      <c r="O29">
-        <v>0.0</v>
-      </c>
-      <c r="P29">
-        <v>0.0</v>
-      </c>
-      <c r="Q29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30">
-        <v>26546.0</v>
-      </c>
-      <c r="B30">
-        <v>0.0</v>
-      </c>
-      <c r="C30">
-        <v>0.0</v>
-      </c>
-      <c r="D30">
-        <v>0.0</v>
-      </c>
-      <c r="E30">
-        <v>0.0</v>
-      </c>
-      <c r="F30">
-        <v>0.0</v>
-      </c>
-      <c r="G30">
-        <v>0.0</v>
-      </c>
-      <c r="H30">
-        <v>0.0</v>
-      </c>
-      <c r="I30">
-        <v>0.0</v>
-      </c>
-      <c r="J30">
-        <v>0.0</v>
-      </c>
-      <c r="K30">
-        <v>3146.9999999999995</v>
-      </c>
-      <c r="L30">
-        <v>0.0</v>
-      </c>
-      <c r="M30">
-        <v>0.0</v>
-      </c>
-      <c r="N30">
-        <v>24130.0</v>
-      </c>
-      <c r="O30">
-        <v>0.0</v>
-      </c>
-      <c r="P30">
-        <v>0.0</v>
-      </c>
-      <c r="Q30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31">
-        <v>28805.0</v>
-      </c>
-      <c r="B31">
-        <v>0.0</v>
-      </c>
-      <c r="C31">
-        <v>0.0</v>
-      </c>
-      <c r="D31">
-        <v>0.0</v>
-      </c>
-      <c r="E31">
-        <v>0.0</v>
-      </c>
-      <c r="F31">
-        <v>0.0</v>
-      </c>
-      <c r="G31">
-        <v>0.0</v>
-      </c>
-      <c r="H31">
-        <v>0.0</v>
-      </c>
-      <c r="I31">
-        <v>0.0</v>
-      </c>
-      <c r="J31">
-        <v>0.0</v>
-      </c>
-      <c r="K31">
-        <v>3146.0</v>
-      </c>
-      <c r="L31">
-        <v>0.0</v>
-      </c>
-      <c r="M31">
-        <v>0.0</v>
-      </c>
-      <c r="N31">
-        <v>24130.0</v>
-      </c>
-      <c r="O31">
-        <v>0.0</v>
-      </c>
-      <c r="P31">
-        <v>0.0</v>
-      </c>
-      <c r="Q31">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32">
-        <v>34070.13522111111</v>
-      </c>
-      <c r="B32">
-        <v>0.0</v>
-      </c>
-      <c r="C32">
-        <v>0.0</v>
-      </c>
-      <c r="D32">
-        <v>0.0</v>
-      </c>
-      <c r="E32">
-        <v>0.0</v>
-      </c>
-      <c r="F32">
-        <v>0.0</v>
-      </c>
-      <c r="G32">
-        <v>0.0</v>
-      </c>
-      <c r="H32">
-        <v>0.0</v>
-      </c>
-      <c r="I32">
-        <v>0.0</v>
-      </c>
-      <c r="J32">
-        <v>0.0</v>
-      </c>
-      <c r="K32">
-        <v>3072.0</v>
-      </c>
-      <c r="L32">
-        <v>0.0</v>
-      </c>
-      <c r="M32">
-        <v>0.0</v>
-      </c>
-      <c r="N32">
-        <v>24130.0</v>
-      </c>
-      <c r="O32">
-        <v>0.0</v>
-      </c>
-      <c r="P32">
-        <v>0.0</v>
-      </c>
-      <c r="Q32">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33">
-        <v>38557.0</v>
-      </c>
-      <c r="B33">
-        <v>0.0</v>
-      </c>
-      <c r="C33">
-        <v>0.0</v>
-      </c>
-      <c r="D33">
-        <v>0.0</v>
-      </c>
-      <c r="E33">
-        <v>0.0</v>
-      </c>
-      <c r="F33">
-        <v>0.0</v>
-      </c>
-      <c r="G33">
-        <v>0.0</v>
-      </c>
-      <c r="H33">
-        <v>0.0</v>
-      </c>
-      <c r="I33">
-        <v>0.0</v>
-      </c>
-      <c r="J33">
-        <v>0.0</v>
-      </c>
-      <c r="K33">
-        <v>3138.0</v>
-      </c>
-      <c r="L33">
-        <v>0.0</v>
-      </c>
-      <c r="M33">
-        <v>0.0</v>
-      </c>
-      <c r="N33">
-        <v>24130.0</v>
-      </c>
-      <c r="O33">
-        <v>0.0</v>
-      </c>
-      <c r="P33">
-        <v>0.0</v>
-      </c>
-      <c r="Q33">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34">
-        <v>41659.0</v>
-      </c>
-      <c r="B34">
-        <v>0.0</v>
-      </c>
-      <c r="C34">
-        <v>0.0</v>
-      </c>
-      <c r="D34">
-        <v>0.0</v>
-      </c>
-      <c r="E34">
-        <v>0.0</v>
-      </c>
-      <c r="F34">
-        <v>0.0</v>
-      </c>
-      <c r="G34">
-        <v>0.0</v>
-      </c>
-      <c r="H34">
-        <v>0.0</v>
-      </c>
-      <c r="I34">
-        <v>0.0</v>
-      </c>
-      <c r="J34">
-        <v>0.0</v>
-      </c>
-      <c r="K34">
-        <v>3179.0000000000005</v>
-      </c>
-      <c r="L34">
-        <v>141.0</v>
-      </c>
-      <c r="M34">
-        <v>0.0</v>
-      </c>
-      <c r="N34">
-        <v>24130.0</v>
-      </c>
-      <c r="O34">
-        <v>0.0</v>
-      </c>
-      <c r="P34">
-        <v>0.0</v>
-      </c>
-      <c r="Q34">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35">
-        <v>42934.0</v>
-      </c>
-      <c r="B35">
-        <v>0.0</v>
-      </c>
-      <c r="C35">
-        <v>0.0</v>
-      </c>
-      <c r="D35">
-        <v>0.0</v>
-      </c>
-      <c r="E35">
-        <v>0.0</v>
-      </c>
-      <c r="F35">
-        <v>0.0</v>
-      </c>
-      <c r="G35">
-        <v>0.0</v>
-      </c>
-      <c r="H35">
-        <v>0.0</v>
-      </c>
-      <c r="I35">
-        <v>0.0</v>
-      </c>
-      <c r="J35">
-        <v>0.0</v>
-      </c>
-      <c r="K35">
-        <v>3069.0</v>
-      </c>
-      <c r="L35">
-        <v>582.0</v>
-      </c>
-      <c r="M35">
-        <v>0.0</v>
-      </c>
-      <c r="N35">
-        <v>24130.0</v>
-      </c>
-      <c r="O35">
-        <v>0.0</v>
-      </c>
-      <c r="P35">
-        <v>0.0</v>
-      </c>
-      <c r="Q35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36">
-        <v>43020.0</v>
-      </c>
-      <c r="B36">
-        <v>0.0</v>
-      </c>
-      <c r="C36">
-        <v>0.0</v>
-      </c>
-      <c r="D36">
-        <v>0.0</v>
-      </c>
-      <c r="E36">
-        <v>0.0</v>
-      </c>
-      <c r="F36">
-        <v>0.0</v>
-      </c>
-      <c r="G36">
-        <v>0.0</v>
-      </c>
-      <c r="H36">
-        <v>0.0</v>
-      </c>
-      <c r="I36">
-        <v>0.0</v>
-      </c>
-      <c r="J36">
-        <v>0.0</v>
-      </c>
-      <c r="K36">
-        <v>2922.0</v>
-      </c>
-      <c r="L36">
-        <v>1432.0</v>
-      </c>
-      <c r="M36">
-        <v>0.0</v>
-      </c>
-      <c r="N36">
-        <v>24130.0</v>
-      </c>
-      <c r="O36">
-        <v>0.0</v>
-      </c>
-      <c r="P36">
-        <v>0.0</v>
-      </c>
-      <c r="Q36">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37">
-        <v>43063.0</v>
-      </c>
-      <c r="B37">
-        <v>0.0</v>
-      </c>
-      <c r="C37">
-        <v>0.0</v>
-      </c>
-      <c r="D37">
-        <v>0.0</v>
-      </c>
-      <c r="E37">
-        <v>0.0</v>
-      </c>
-      <c r="F37">
-        <v>0.0</v>
-      </c>
-      <c r="G37">
-        <v>0.0</v>
-      </c>
-      <c r="H37">
-        <v>0.0</v>
-      </c>
-      <c r="I37">
-        <v>0.0</v>
-      </c>
-      <c r="J37">
-        <v>0.0</v>
-      </c>
-      <c r="K37">
-        <v>2772.0</v>
-      </c>
-      <c r="L37">
-        <v>2304.0</v>
-      </c>
-      <c r="M37">
-        <v>0.0</v>
-      </c>
-      <c r="N37">
-        <v>24130.0</v>
-      </c>
-      <c r="O37">
-        <v>0.0</v>
-      </c>
-      <c r="P37">
-        <v>0.0</v>
-      </c>
-      <c r="Q37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38">
-        <v>43792.0</v>
-      </c>
-      <c r="B38">
-        <v>0.0</v>
-      </c>
-      <c r="C38">
-        <v>0.0</v>
-      </c>
-      <c r="D38">
-        <v>0.0</v>
-      </c>
-      <c r="E38">
-        <v>0.0</v>
-      </c>
-      <c r="F38">
-        <v>0.0</v>
-      </c>
-      <c r="G38">
-        <v>0.0</v>
-      </c>
-      <c r="H38">
-        <v>0.0</v>
-      </c>
-      <c r="I38">
-        <v>0.0</v>
-      </c>
-      <c r="J38">
-        <v>0.0</v>
-      </c>
-      <c r="K38">
-        <v>2979.0</v>
-      </c>
-      <c r="L38">
-        <v>2788.0</v>
-      </c>
-      <c r="M38">
-        <v>0.0</v>
-      </c>
-      <c r="N38">
-        <v>24130.0</v>
-      </c>
-      <c r="O38">
-        <v>0.0</v>
-      </c>
-      <c r="P38">
-        <v>0.0</v>
-      </c>
-      <c r="Q38">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39">
-        <v>42626.0</v>
-      </c>
-      <c r="B39">
-        <v>0.0</v>
-      </c>
-      <c r="C39">
-        <v>0.0</v>
-      </c>
-      <c r="D39">
-        <v>0.0</v>
-      </c>
-      <c r="E39">
-        <v>0.0</v>
-      </c>
-      <c r="F39">
-        <v>0.0</v>
-      </c>
-      <c r="G39">
-        <v>0.0</v>
-      </c>
-      <c r="H39">
-        <v>0.0</v>
-      </c>
-      <c r="I39">
-        <v>0.0</v>
-      </c>
-      <c r="J39">
-        <v>0.0</v>
-      </c>
-      <c r="K39">
-        <v>3161.0</v>
-      </c>
-      <c r="L39">
-        <v>2746.0</v>
-      </c>
-      <c r="M39">
-        <v>0.0</v>
-      </c>
-      <c r="N39">
-        <v>24130.0</v>
-      </c>
-      <c r="O39">
-        <v>0.0</v>
-      </c>
-      <c r="P39">
-        <v>0.0</v>
-      </c>
-      <c r="Q39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40">
-        <v>41074.0</v>
-      </c>
-      <c r="B40">
-        <v>0.0</v>
-      </c>
-      <c r="C40">
-        <v>0.0</v>
-      </c>
-      <c r="D40">
-        <v>0.0</v>
-      </c>
-      <c r="E40">
-        <v>0.0</v>
-      </c>
-      <c r="F40">
-        <v>0.0</v>
-      </c>
-      <c r="G40">
-        <v>0.0</v>
-      </c>
-      <c r="H40">
-        <v>0.0</v>
-      </c>
-      <c r="I40">
-        <v>0.0</v>
-      </c>
-      <c r="J40">
-        <v>0.0</v>
-      </c>
-      <c r="K40">
-        <v>3383.0</v>
-      </c>
-      <c r="L40">
-        <v>2325.0</v>
-      </c>
-      <c r="M40">
-        <v>0.0</v>
-      </c>
-      <c r="N40">
-        <v>24130.0</v>
-      </c>
-      <c r="O40">
-        <v>0.0</v>
-      </c>
-      <c r="P40">
-        <v>0.0</v>
-      </c>
-      <c r="Q40">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41">
-        <v>40095.0</v>
-      </c>
-      <c r="B41">
-        <v>0.0</v>
-      </c>
-      <c r="C41">
-        <v>0.0</v>
-      </c>
-      <c r="D41">
-        <v>0.0</v>
-      </c>
-      <c r="E41">
-        <v>0.0</v>
-      </c>
-      <c r="F41">
-        <v>0.0</v>
-      </c>
-      <c r="G41">
-        <v>0.0</v>
-      </c>
-      <c r="H41">
-        <v>0.0</v>
-      </c>
-      <c r="I41">
-        <v>0.0</v>
-      </c>
-      <c r="J41">
-        <v>0.0</v>
-      </c>
-      <c r="K41">
-        <v>3426.9999999999995</v>
-      </c>
-      <c r="L41">
-        <v>1504.0</v>
-      </c>
-      <c r="M41">
-        <v>0.0</v>
-      </c>
-      <c r="N41">
-        <v>24130.0</v>
-      </c>
-      <c r="O41">
-        <v>0.0</v>
-      </c>
-      <c r="P41">
-        <v>0.0</v>
-      </c>
-      <c r="Q41">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42">
-        <v>40926.0</v>
-      </c>
-      <c r="B42">
-        <v>0.0</v>
-      </c>
-      <c r="C42">
-        <v>0.0</v>
-      </c>
-      <c r="D42">
-        <v>0.0</v>
-      </c>
-      <c r="E42">
-        <v>0.0</v>
-      </c>
-      <c r="F42">
-        <v>0.0</v>
-      </c>
-      <c r="G42">
-        <v>0.0</v>
-      </c>
-      <c r="H42">
-        <v>0.0</v>
-      </c>
-      <c r="I42">
-        <v>0.0</v>
-      </c>
-      <c r="J42">
-        <v>0.0</v>
-      </c>
-      <c r="K42">
-        <v>3380.0</v>
-      </c>
-      <c r="L42">
-        <v>552.0</v>
-      </c>
-      <c r="M42">
-        <v>0.0</v>
-      </c>
-      <c r="N42">
-        <v>24130.0</v>
-      </c>
-      <c r="O42">
-        <v>0.0</v>
-      </c>
-      <c r="P42">
-        <v>0.0</v>
-      </c>
-      <c r="Q42">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43">
-        <v>44830.0</v>
-      </c>
-      <c r="B43">
-        <v>0.0</v>
-      </c>
-      <c r="C43">
-        <v>0.0</v>
-      </c>
-      <c r="D43">
-        <v>0.0</v>
-      </c>
-      <c r="E43">
-        <v>0.0</v>
-      </c>
-      <c r="F43">
-        <v>0.0</v>
-      </c>
-      <c r="G43">
-        <v>0.0</v>
-      </c>
-      <c r="H43">
-        <v>0.0</v>
-      </c>
-      <c r="I43">
-        <v>0.0</v>
-      </c>
-      <c r="J43">
-        <v>0.0</v>
-      </c>
-      <c r="K43">
-        <v>3146.9999999999995</v>
-      </c>
-      <c r="L43">
-        <v>119.00000000000001</v>
-      </c>
-      <c r="M43">
-        <v>0.0</v>
-      </c>
-      <c r="N43">
-        <v>24130.0</v>
-      </c>
-      <c r="O43">
-        <v>0.0</v>
-      </c>
-      <c r="P43">
-        <v>0.0</v>
-      </c>
-      <c r="Q43">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44">
-        <v>48723.0</v>
-      </c>
-      <c r="B44">
-        <v>0.0</v>
-      </c>
-      <c r="C44">
-        <v>0.0</v>
-      </c>
-      <c r="D44">
-        <v>0.0</v>
-      </c>
-      <c r="E44">
-        <v>0.0</v>
-      </c>
-      <c r="F44">
-        <v>0.0</v>
-      </c>
-      <c r="G44">
-        <v>0.0</v>
-      </c>
-      <c r="H44">
-        <v>0.0</v>
-      </c>
-      <c r="I44">
-        <v>0.0</v>
-      </c>
-      <c r="J44">
-        <v>0.0</v>
-      </c>
-      <c r="K44">
-        <v>3263.0</v>
-      </c>
-      <c r="L44">
-        <v>0.0</v>
-      </c>
-      <c r="M44">
-        <v>0.0</v>
-      </c>
-      <c r="N44">
-        <v>24130.0</v>
-      </c>
-      <c r="O44">
-        <v>0.0</v>
-      </c>
-      <c r="P44">
-        <v>0.0</v>
-      </c>
-      <c r="Q44">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45">
-        <v>49248.0</v>
-      </c>
-      <c r="B45">
-        <v>0.0</v>
-      </c>
-      <c r="C45">
-        <v>0.0</v>
-      </c>
-      <c r="D45">
-        <v>0.0</v>
-      </c>
-      <c r="E45">
-        <v>0.0</v>
-      </c>
-      <c r="F45">
-        <v>0.0</v>
-      </c>
-      <c r="G45">
-        <v>0.0</v>
-      </c>
-      <c r="H45">
-        <v>0.0</v>
-      </c>
-      <c r="I45">
-        <v>0.0</v>
-      </c>
-      <c r="J45">
-        <v>0.0</v>
-      </c>
-      <c r="K45">
-        <v>3353.0</v>
-      </c>
-      <c r="L45">
-        <v>0.0</v>
-      </c>
-      <c r="M45">
-        <v>0.0</v>
-      </c>
-      <c r="N45">
-        <v>24130.0</v>
-      </c>
-      <c r="O45">
-        <v>0.0</v>
-      </c>
-      <c r="P45">
-        <v>0.0</v>
-      </c>
-      <c r="Q45">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46">
-        <v>46063.0</v>
-      </c>
-      <c r="B46">
-        <v>0.0</v>
-      </c>
-      <c r="C46">
-        <v>0.0</v>
-      </c>
-      <c r="D46">
-        <v>0.0</v>
-      </c>
-      <c r="E46">
-        <v>0.0</v>
-      </c>
-      <c r="F46">
-        <v>0.0</v>
-      </c>
-      <c r="G46">
-        <v>0.0</v>
-      </c>
-      <c r="H46">
-        <v>0.0</v>
-      </c>
-      <c r="I46">
-        <v>0.0</v>
-      </c>
-      <c r="J46">
-        <v>0.0</v>
-      </c>
-      <c r="K46">
-        <v>3251.9999999999995</v>
-      </c>
-      <c r="L46">
-        <v>0.0</v>
-      </c>
-      <c r="M46">
-        <v>0.0</v>
-      </c>
-      <c r="N46">
-        <v>24130.0</v>
-      </c>
-      <c r="O46">
-        <v>0.0</v>
-      </c>
-      <c r="P46">
-        <v>0.0</v>
-      </c>
-      <c r="Q46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47">
-        <v>43068.0</v>
-      </c>
-      <c r="B47">
-        <v>0.0</v>
-      </c>
-      <c r="C47">
-        <v>0.0</v>
-      </c>
-      <c r="D47">
-        <v>0.0</v>
-      </c>
-      <c r="E47">
-        <v>0.0</v>
-      </c>
-      <c r="F47">
-        <v>0.0</v>
-      </c>
-      <c r="G47">
-        <v>0.0</v>
-      </c>
-      <c r="H47">
-        <v>0.0</v>
-      </c>
-      <c r="I47">
-        <v>0.0</v>
-      </c>
-      <c r="J47">
-        <v>0.0</v>
-      </c>
-      <c r="K47">
-        <v>3198.0000000000005</v>
-      </c>
-      <c r="L47">
-        <v>0.0</v>
-      </c>
-      <c r="M47">
-        <v>0.0</v>
-      </c>
-      <c r="N47">
-        <v>24130.0</v>
-      </c>
-      <c r="O47">
-        <v>0.0</v>
-      </c>
-      <c r="P47">
-        <v>0.0</v>
-      </c>
-      <c r="Q47">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48">
-        <v>43864.0</v>
-      </c>
-      <c r="B48">
-        <v>0.0</v>
-      </c>
-      <c r="C48">
-        <v>0.0</v>
-      </c>
-      <c r="D48">
-        <v>0.0</v>
-      </c>
-      <c r="E48">
-        <v>0.0</v>
-      </c>
-      <c r="F48">
-        <v>0.0</v>
-      </c>
-      <c r="G48">
-        <v>0.0</v>
-      </c>
-      <c r="H48">
-        <v>0.0</v>
-      </c>
-      <c r="I48">
-        <v>0.0</v>
-      </c>
-      <c r="J48">
-        <v>0.0</v>
-      </c>
-      <c r="K48">
-        <v>3073.0</v>
-      </c>
-      <c r="L48">
-        <v>0.0</v>
-      </c>
-      <c r="M48">
-        <v>0.0</v>
-      </c>
-      <c r="N48">
-        <v>24130.0</v>
-      </c>
-      <c r="O48">
-        <v>0.0</v>
-      </c>
-      <c r="P48">
-        <v>0.0</v>
-      </c>
-      <c r="Q48">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49">
-        <v>44972.0</v>
-      </c>
-      <c r="B49">
-        <v>0.0</v>
-      </c>
-      <c r="C49">
-        <v>0.0</v>
-      </c>
-      <c r="D49">
-        <v>0.0</v>
-      </c>
-      <c r="E49">
-        <v>0.0</v>
-      </c>
-      <c r="F49">
-        <v>0.0</v>
-      </c>
-      <c r="G49">
-        <v>0.0</v>
-      </c>
-      <c r="H49">
-        <v>0.0</v>
-      </c>
-      <c r="I49">
-        <v>0.0</v>
-      </c>
-      <c r="J49">
-        <v>0.0</v>
-      </c>
-      <c r="K49">
-        <v>3077.0000000000005</v>
-      </c>
-      <c r="L49">
-        <v>0.0</v>
-      </c>
-      <c r="M49">
-        <v>0.0</v>
-      </c>
-      <c r="N49">
-        <v>24130.0</v>
-      </c>
-      <c r="O49">
-        <v>0.0</v>
-      </c>
-      <c r="P49">
-        <v>0.0</v>
-      </c>
-      <c r="Q49">
         <v>0.0</v>
       </c>
     </row>

--- a/ErgebnisseFR.xlsx
+++ b/ErgebnisseFR.xlsx
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,642 +1122,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>33704.0</v>
-      </c>
-      <c r="B14">
-        <v>0.0</v>
-      </c>
-      <c r="C14">
-        <v>0.0</v>
-      </c>
-      <c r="D14">
-        <v>0.0</v>
-      </c>
-      <c r="E14">
-        <v>0.0</v>
-      </c>
-      <c r="F14">
-        <v>0.0</v>
-      </c>
-      <c r="G14">
-        <v>0.0</v>
-      </c>
-      <c r="H14">
-        <v>0.0</v>
-      </c>
-      <c r="I14">
-        <v>0.0</v>
-      </c>
-      <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
-        <v>1725.0</v>
-      </c>
-      <c r="L14">
-        <v>1628.0</v>
-      </c>
-      <c r="M14">
-        <v>0.0</v>
-      </c>
-      <c r="N14">
-        <v>24130.0</v>
-      </c>
-      <c r="O14">
-        <v>0.0</v>
-      </c>
-      <c r="P14">
-        <v>0.0</v>
-      </c>
-      <c r="Q14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <v>32981.0</v>
-      </c>
-      <c r="B15">
-        <v>0.0</v>
-      </c>
-      <c r="C15">
-        <v>0.0</v>
-      </c>
-      <c r="D15">
-        <v>0.0</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>0.0</v>
-      </c>
-      <c r="G15">
-        <v>0.0</v>
-      </c>
-      <c r="H15">
-        <v>0.0</v>
-      </c>
-      <c r="I15">
-        <v>0.0</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>1971.0</v>
-      </c>
-      <c r="L15">
-        <v>1747.0</v>
-      </c>
-      <c r="M15">
-        <v>0.0</v>
-      </c>
-      <c r="N15">
-        <v>24130.0</v>
-      </c>
-      <c r="O15">
-        <v>0.0</v>
-      </c>
-      <c r="P15">
-        <v>0.0</v>
-      </c>
-      <c r="Q15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <v>31077.0</v>
-      </c>
-      <c r="B16">
-        <v>0.0</v>
-      </c>
-      <c r="C16">
-        <v>0.0</v>
-      </c>
-      <c r="D16">
-        <v>0.0</v>
-      </c>
-      <c r="E16">
-        <v>0.0</v>
-      </c>
-      <c r="F16">
-        <v>0.0</v>
-      </c>
-      <c r="G16">
-        <v>0.0</v>
-      </c>
-      <c r="H16">
-        <v>0.0</v>
-      </c>
-      <c r="I16">
-        <v>0.0</v>
-      </c>
-      <c r="J16">
-        <v>0.0</v>
-      </c>
-      <c r="K16">
-        <v>2096.0</v>
-      </c>
-      <c r="L16">
-        <v>1474.0</v>
-      </c>
-      <c r="M16">
-        <v>0.0</v>
-      </c>
-      <c r="N16">
-        <v>24130.0</v>
-      </c>
-      <c r="O16">
-        <v>0.0</v>
-      </c>
-      <c r="P16">
-        <v>0.0</v>
-      </c>
-      <c r="Q16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>30377.0</v>
-      </c>
-      <c r="B17">
-        <v>0.0</v>
-      </c>
-      <c r="C17">
-        <v>0.0</v>
-      </c>
-      <c r="D17">
-        <v>0.0</v>
-      </c>
-      <c r="E17">
-        <v>0.0</v>
-      </c>
-      <c r="F17">
-        <v>0.0</v>
-      </c>
-      <c r="G17">
-        <v>0.0</v>
-      </c>
-      <c r="H17">
-        <v>0.0</v>
-      </c>
-      <c r="I17">
-        <v>0.0</v>
-      </c>
-      <c r="J17">
-        <v>0.0</v>
-      </c>
-      <c r="K17">
-        <v>2108.0</v>
-      </c>
-      <c r="L17">
-        <v>904.0</v>
-      </c>
-      <c r="M17">
-        <v>0.0</v>
-      </c>
-      <c r="N17">
-        <v>24130.0</v>
-      </c>
-      <c r="O17">
-        <v>0.0</v>
-      </c>
-      <c r="P17">
-        <v>0.0</v>
-      </c>
-      <c r="Q17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>30884.0</v>
-      </c>
-      <c r="B18">
-        <v>0.0</v>
-      </c>
-      <c r="C18">
-        <v>0.0</v>
-      </c>
-      <c r="D18">
-        <v>0.0</v>
-      </c>
-      <c r="E18">
-        <v>0.0</v>
-      </c>
-      <c r="F18">
-        <v>0.0</v>
-      </c>
-      <c r="G18">
-        <v>0.0</v>
-      </c>
-      <c r="H18">
-        <v>0.0</v>
-      </c>
-      <c r="I18">
-        <v>0.0</v>
-      </c>
-      <c r="J18">
-        <v>0.0</v>
-      </c>
-      <c r="K18">
-        <v>2104.0</v>
-      </c>
-      <c r="L18">
-        <v>324.0</v>
-      </c>
-      <c r="M18">
-        <v>0.0</v>
-      </c>
-      <c r="N18">
-        <v>24130.0</v>
-      </c>
-      <c r="O18">
-        <v>0.0</v>
-      </c>
-      <c r="P18">
-        <v>0.0</v>
-      </c>
-      <c r="Q18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <v>33817.0</v>
-      </c>
-      <c r="B19">
-        <v>0.0</v>
-      </c>
-      <c r="C19">
-        <v>0.0</v>
-      </c>
-      <c r="D19">
-        <v>0.0</v>
-      </c>
-      <c r="E19">
-        <v>0.0</v>
-      </c>
-      <c r="F19">
-        <v>0.0</v>
-      </c>
-      <c r="G19">
-        <v>0.0</v>
-      </c>
-      <c r="H19">
-        <v>0.0</v>
-      </c>
-      <c r="I19">
-        <v>0.0</v>
-      </c>
-      <c r="J19">
-        <v>0.0</v>
-      </c>
-      <c r="K19">
-        <v>2185.0</v>
-      </c>
-      <c r="L19">
-        <v>107.0</v>
-      </c>
-      <c r="M19">
-        <v>0.0</v>
-      </c>
-      <c r="N19">
-        <v>24130.0</v>
-      </c>
-      <c r="O19">
-        <v>0.0</v>
-      </c>
-      <c r="P19">
-        <v>0.0</v>
-      </c>
-      <c r="Q19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
-        <v>36916.0</v>
-      </c>
-      <c r="B20">
-        <v>0.0</v>
-      </c>
-      <c r="C20">
-        <v>0.0</v>
-      </c>
-      <c r="D20">
-        <v>0.0</v>
-      </c>
-      <c r="E20">
-        <v>0.0</v>
-      </c>
-      <c r="F20">
-        <v>0.0</v>
-      </c>
-      <c r="G20">
-        <v>0.0</v>
-      </c>
-      <c r="H20">
-        <v>0.0</v>
-      </c>
-      <c r="I20">
-        <v>0.0</v>
-      </c>
-      <c r="J20">
-        <v>0.0</v>
-      </c>
-      <c r="K20">
-        <v>2444.0</v>
-      </c>
-      <c r="L20">
-        <v>0.0</v>
-      </c>
-      <c r="M20">
-        <v>0.0</v>
-      </c>
-      <c r="N20">
-        <v>24130.0</v>
-      </c>
-      <c r="O20">
-        <v>0.0</v>
-      </c>
-      <c r="P20">
-        <v>0.0</v>
-      </c>
-      <c r="Q20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>37815.0</v>
-      </c>
-      <c r="B21">
-        <v>0.0</v>
-      </c>
-      <c r="C21">
-        <v>0.0</v>
-      </c>
-      <c r="D21">
-        <v>0.0</v>
-      </c>
-      <c r="E21">
-        <v>0.0</v>
-      </c>
-      <c r="F21">
-        <v>0.0</v>
-      </c>
-      <c r="G21">
-        <v>0.0</v>
-      </c>
-      <c r="H21">
-        <v>0.0</v>
-      </c>
-      <c r="I21">
-        <v>0.0</v>
-      </c>
-      <c r="J21">
-        <v>0.0</v>
-      </c>
-      <c r="K21">
-        <v>2596.0</v>
-      </c>
-      <c r="L21">
-        <v>0.0</v>
-      </c>
-      <c r="M21">
-        <v>0.0</v>
-      </c>
-      <c r="N21">
-        <v>24130.0</v>
-      </c>
-      <c r="O21">
-        <v>0.0</v>
-      </c>
-      <c r="P21">
-        <v>0.0</v>
-      </c>
-      <c r="Q21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
-        <v>36258.0</v>
-      </c>
-      <c r="B22">
-        <v>0.0</v>
-      </c>
-      <c r="C22">
-        <v>0.0</v>
-      </c>
-      <c r="D22">
-        <v>0.0</v>
-      </c>
-      <c r="E22">
-        <v>0.0</v>
-      </c>
-      <c r="F22">
-        <v>0.0</v>
-      </c>
-      <c r="G22">
-        <v>0.0</v>
-      </c>
-      <c r="H22">
-        <v>0.0</v>
-      </c>
-      <c r="I22">
-        <v>0.0</v>
-      </c>
-      <c r="J22">
-        <v>0.0</v>
-      </c>
-      <c r="K22">
-        <v>2772.0</v>
-      </c>
-      <c r="L22">
-        <v>0.0</v>
-      </c>
-      <c r="M22">
-        <v>0.0</v>
-      </c>
-      <c r="N22">
-        <v>24130.0</v>
-      </c>
-      <c r="O22">
-        <v>0.0</v>
-      </c>
-      <c r="P22">
-        <v>0.0</v>
-      </c>
-      <c r="Q22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
-        <v>33812.0</v>
-      </c>
-      <c r="B23">
-        <v>0.0</v>
-      </c>
-      <c r="C23">
-        <v>0.0</v>
-      </c>
-      <c r="D23">
-        <v>0.0</v>
-      </c>
-      <c r="E23">
-        <v>0.0</v>
-      </c>
-      <c r="F23">
-        <v>0.0</v>
-      </c>
-      <c r="G23">
-        <v>0.0</v>
-      </c>
-      <c r="H23">
-        <v>0.0</v>
-      </c>
-      <c r="I23">
-        <v>0.0</v>
-      </c>
-      <c r="J23">
-        <v>0.0</v>
-      </c>
-      <c r="K23">
-        <v>3018.0</v>
-      </c>
-      <c r="L23">
-        <v>0.0</v>
-      </c>
-      <c r="M23">
-        <v>0.0</v>
-      </c>
-      <c r="N23">
-        <v>24130.0</v>
-      </c>
-      <c r="O23">
-        <v>0.0</v>
-      </c>
-      <c r="P23">
-        <v>0.0</v>
-      </c>
-      <c r="Q23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
-        <v>34639.0</v>
-      </c>
-      <c r="B24">
-        <v>0.0</v>
-      </c>
-      <c r="C24">
-        <v>0.0</v>
-      </c>
-      <c r="D24">
-        <v>0.0</v>
-      </c>
-      <c r="E24">
-        <v>0.0</v>
-      </c>
-      <c r="F24">
-        <v>0.0</v>
-      </c>
-      <c r="G24">
-        <v>0.0</v>
-      </c>
-      <c r="H24">
-        <v>0.0</v>
-      </c>
-      <c r="I24">
-        <v>0.0</v>
-      </c>
-      <c r="J24">
-        <v>0.0</v>
-      </c>
-      <c r="K24">
-        <v>3014.0</v>
-      </c>
-      <c r="L24">
-        <v>0.0</v>
-      </c>
-      <c r="M24">
-        <v>0.0</v>
-      </c>
-      <c r="N24">
-        <v>24130.0</v>
-      </c>
-      <c r="O24">
-        <v>0.0</v>
-      </c>
-      <c r="P24">
-        <v>0.0</v>
-      </c>
-      <c r="Q24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
-        <v>35422.0</v>
-      </c>
-      <c r="B25">
-        <v>0.0</v>
-      </c>
-      <c r="C25">
-        <v>0.0</v>
-      </c>
-      <c r="D25">
-        <v>0.0</v>
-      </c>
-      <c r="E25">
-        <v>0.0</v>
-      </c>
-      <c r="F25">
-        <v>0.0</v>
-      </c>
-      <c r="G25">
-        <v>0.0</v>
-      </c>
-      <c r="H25">
-        <v>0.0</v>
-      </c>
-      <c r="I25">
-        <v>0.0</v>
-      </c>
-      <c r="J25">
-        <v>0.0</v>
-      </c>
-      <c r="K25">
-        <v>3011.0</v>
-      </c>
-      <c r="L25">
-        <v>0.0</v>
-      </c>
-      <c r="M25">
-        <v>0.0</v>
-      </c>
-      <c r="N25">
-        <v>24130.0</v>
-      </c>
-      <c r="O25">
-        <v>0.0</v>
-      </c>
-      <c r="P25">
-        <v>0.0</v>
-      </c>
-      <c r="Q25">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
